--- a/data/trans_camb/P6907S1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -5,54</t>
+          <t>-21,14; -5,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -0,47</t>
+          <t>-19,06; -0,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 7,84</t>
+          <t>-15,25; 6,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 22,44</t>
+          <t>-16,29; 18,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,14; -1,85</t>
+          <t>-23,36; -1,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 10,55</t>
+          <t>-14,92; 10,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 3,01</t>
+          <t>-15,43; 2,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; -3,19</t>
+          <t>-17,92; -4,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 5,59</t>
+          <t>-10,31; 6,45</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 235,15</t>
+          <t>-100,0; 150,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,31; 151,76</t>
+          <t>-92,01; 117,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 405,96</t>
+          <t>-100,0; 301,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 70,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,68; 190,78</t>
+          <t>-69,23; 209,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 87,29</t>
+          <t>-100,0; 100,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,75</t>
+          <t>-100,0; -16,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 78,11</t>
+          <t>-60,86; 82,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 2,53</t>
+          <t>-28,05; 2,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 3,16</t>
+          <t>-28,2; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,96; 5,92</t>
+          <t>-25,26; 5,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 55,93</t>
+          <t>-14,82; 54,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,5; -2,7</t>
+          <t>-23,75; -2,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 23,13</t>
+          <t>-9,28; 22,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 7,47</t>
+          <t>-18,1; 7,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -2,87</t>
+          <t>-22,7; -3,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 10,05</t>
+          <t>-14,47; 9,38</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 385,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 156,07</t>
+          <t>-100,0; 73,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,33; 133,2</t>
+          <t>-87,1; 86,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,9; 689,23</t>
+          <t>-66,59; 595,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 108,05</t>
+          <t>-100,0; 130,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -2,18</t>
+          <t>-100,0; -14,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,56; 162,6</t>
+          <t>-69,69; 117,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 13,4</t>
+          <t>-9,61; 14,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 8,32</t>
+          <t>-11,04; 7,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 30,68</t>
+          <t>1,38; 30,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 0,0</t>
+          <t>-29,15; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 0,0</t>
+          <t>-31,34; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 20,85</t>
+          <t>-12,39; 22,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 6,03</t>
+          <t>-11,4; 5,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 7,19</t>
+          <t>-10,31; 6,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 26,31</t>
+          <t>0,24; 24,43</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,41; 318,5</t>
+          <t>-78,25; 349,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,63; 193,49</t>
+          <t>-79,79; 153,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 593,33</t>
+          <t>-3,58; 611,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 190,4</t>
+          <t>-86,66; 132,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-76,88; 166,24</t>
+          <t>-78,02; 163,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 473,02</t>
+          <t>-8,85; 485,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 10,66</t>
+          <t>-5,38; 10,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,28; -1,1</t>
+          <t>-8,99; -1,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,2</t>
+          <t>-3,64; 7,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,56; -6,12</t>
+          <t>-26,75; -6,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-24,76; -3,8</t>
+          <t>-22,62; -2,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 2,85</t>
+          <t>-19,66; 3,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 3,2</t>
+          <t>-8,16; 2,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; -2,67</t>
+          <t>-10,31; -2,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 5,1</t>
+          <t>-4,72; 4,87</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 234,78</t>
+          <t>-73,01; 255,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6,64</t>
+          <t>-100,0; 1,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,7; 199,39</t>
+          <t>-45,21; 196,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,11</t>
+          <t>-100,0; -5,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,34; 41,58</t>
+          <t>-82,47; 56,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-85,86; 75,13</t>
+          <t>-86,97; 71,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-94,39; -33,98</t>
+          <t>-94,58; -33,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,52; 99,38</t>
+          <t>-46,43; 84,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,52; -4,05</t>
+          <t>-21,23; -4,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 0,27</t>
+          <t>-17,29; 0,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 10,31</t>
+          <t>-13,14; 9,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-16,05; -2,84</t>
+          <t>-16,7; -3,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 7,98</t>
+          <t>-11,1; 9,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 1,01</t>
+          <t>-13,36; 1,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,63; -4,54</t>
+          <t>-15,88; -4,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 0,77</t>
+          <t>-11,79; 0,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 0,65</t>
+          <t>-10,6; 1,2</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 98,77</t>
+          <t>-100,0; 62,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-88,99; 262,05</t>
+          <t>-86,4; 245,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 347,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-91,67; 50,76</t>
+          <t>-92,72; 40,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1690,12 +1690,12 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-91,4; 33,18</t>
+          <t>-90,45; 39,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-85,43; 14,24</t>
+          <t>-82,73; 30,6</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,67</t>
+          <t>-7,97; 1,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -2,09</t>
+          <t>-9,31; -2,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 7,0</t>
+          <t>-2,38; 7,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -2,73</t>
+          <t>-12,91; -2,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,14; -3,94</t>
+          <t>-13,12; -3,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 2,06</t>
+          <t>-8,02; 2,03</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,22; -1,61</t>
+          <t>-8,94; -1,63</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -4,11</t>
+          <t>-9,37; -4,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 2,74</t>
+          <t>-3,77; 2,93</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-74,98; 30,74</t>
+          <t>-74,55; 20,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-81,96; -27,42</t>
+          <t>-80,42; -29,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 96,96</t>
+          <t>-22,32; 106,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -20,83</t>
+          <t>-92,52; -9,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -43,82</t>
+          <t>-93,29; -43,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 28,36</t>
+          <t>-56,38; 27,83</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-76,33; -17,21</t>
+          <t>-78,78; -15,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-81,41; -46,05</t>
+          <t>-81,76; -47,87</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 32,08</t>
+          <t>-32,62; 34,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6907S1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6907S1-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
